--- a/data/edited_data/maternal-employment-rate.xlsx
+++ b/data/edited_data/maternal-employment-rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/female-labour/data/edited_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/edited_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FF379112-131E-4994-B82F-D9F7B77C9CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF0DCB3C-C73C-4B7B-AA20-8122C4398AB4}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{FF379112-131E-4994-B82F-D9F7B77C9CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4F97532-2F35-4137-9E98-8E6CA064D61B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DFCB479A-C1F6-4627-8585-5AEC762416E4}"/>
   </bookViews>
@@ -143,15 +143,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>maternal_emp_rate</t>
-  </si>
-  <si>
-    <t>maternal_pt_emp_rate</t>
-  </si>
-  <si>
-    <t>maternal_ft_emp_rate</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -186,6 +177,15 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>emp_maternal</t>
+  </si>
+  <si>
+    <t>emp_pt_maternal</t>
+  </si>
+  <si>
+    <t>emp_ft_maternal</t>
   </si>
 </sst>
 </file>
@@ -277,6 +277,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC1C5FC-8861-442A-8714-3B09A7D94497}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,13 +616,13 @@
         <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -651,7 +655,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>82.874560356140137</v>
@@ -791,7 +795,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2">
         <v>76.769119501113892</v>
@@ -903,7 +907,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
         <v>74.8</v>
@@ -917,7 +921,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B23" s="4">
         <v>74.232161045074463</v>
@@ -973,7 +977,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" s="4">
         <v>72.176807600396657</v>
@@ -987,7 +991,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2">
         <v>71.682506159802884</v>
@@ -1029,7 +1033,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4">
         <v>71.129816770553589</v>
@@ -1085,7 +1089,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="4">
         <v>67.07414984703064</v>
@@ -1141,7 +1145,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4">
         <v>59.378862380981445</v>
@@ -1169,7 +1173,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4">
         <v>56.2</v>
@@ -1197,7 +1201,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B43" s="4">
         <v>47.131288840907104</v>
@@ -1211,7 +1215,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
         <v>29.956337809562683</v>
